--- a/data/case_03_excavation_only.xlsx
+++ b/data/case_03_excavation_only.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="현재_통합_문서"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="grid_activity_list" sheetId="1" r:id="rId1"/>
@@ -178,25 +178,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -519,19 +519,19 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="3" width="8.6640625" style="1"/>
-    <col min="4" max="4" width="31.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -551,7 +551,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -559,7 +559,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>26</v>
@@ -571,7 +571,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -579,7 +579,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>26</v>
@@ -591,7 +591,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -599,7 +599,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>26</v>
@@ -611,7 +611,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -631,7 +631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -659,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -671,7 +671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -679,7 +679,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -691,7 +691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -699,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -711,7 +711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -719,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -731,7 +731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -739,7 +739,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -751,7 +751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -771,7 +771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -779,7 +779,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -791,7 +791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -811,7 +811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -831,7 +831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -851,7 +851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -871,7 +871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -891,7 +891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -911,7 +911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -931,7 +931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -951,7 +951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -971,7 +971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -991,7 +991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>3</v>
       </c>
@@ -1167,14 +1167,14 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="4" width="8.6640625" style="1"/>
-    <col min="5" max="5" width="31.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" style="1" customWidth="1"/>
     <col min="2000" max="2000" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>3</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>3</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>3</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>3</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>3</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>3</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>2</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>3</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
         <v>2</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
         <v>3</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>2</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
         <v>3</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5">
       <c r="A59" s="1">
         <v>1</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
         <v>1</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>1</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5">
       <c r="A62" s="1">
         <v>2</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5">
       <c r="A63" s="1">
         <v>2</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>3</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5">
       <c r="A66" s="1">
         <v>3</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5">
       <c r="A67" s="1">
         <v>3</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5">
       <c r="A68" s="1">
         <v>1</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5">
       <c r="A69" s="1">
         <v>1</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5">
       <c r="A70" s="1">
         <v>1</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
         <v>2</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5">
       <c r="A72" s="1">
         <v>2</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5">
       <c r="A73" s="1">
         <v>2</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5">
       <c r="A74" s="1">
         <v>3</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5">
       <c r="A75" s="1">
         <v>3</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5">
       <c r="A76" s="1">
         <v>3</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5">
       <c r="A77" s="1">
         <v>1</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5">
       <c r="A78" s="1">
         <v>2</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5">
       <c r="A79" s="1">
         <v>3</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5">
       <c r="A80" s="1">
         <v>1</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5">
       <c r="A81" s="1">
         <v>2</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5">
       <c r="A82" s="1">
         <v>3</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5">
       <c r="A83" s="1">
         <v>1</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5">
       <c r="A84" s="1">
         <v>2</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5">
       <c r="A85" s="1">
         <v>3</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5">
       <c r="A86" s="1">
         <v>2</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5">
       <c r="A87" s="1">
         <v>2</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5">
       <c r="A88" s="1">
         <v>2</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5">
       <c r="A89" s="1">
         <v>2</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5">
       <c r="A90" s="1">
         <v>2</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5">
       <c r="A91" s="1">
         <v>2</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5">
       <c r="A92" s="1">
         <v>3</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5">
       <c r="A93" s="1">
         <v>3</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5">
       <c r="A94" s="1">
         <v>3</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5">
       <c r="A95" s="1">
         <v>3</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5">
       <c r="A96" s="1">
         <v>3</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5">
       <c r="A97" s="1">
         <v>3</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5">
       <c r="A98" s="1">
         <v>2</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5">
       <c r="A99" s="1">
         <v>2</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5">
       <c r="A100" s="1">
         <v>2</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5">
       <c r="A101" s="1">
         <v>2</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5">
       <c r="A102" s="1">
         <v>2</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5">
       <c r="A103" s="1">
         <v>2</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:5">
       <c r="A104" s="1">
         <v>3</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:5">
       <c r="A105" s="1">
         <v>3</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:5">
       <c r="A106" s="1">
         <v>3</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5">
       <c r="A107" s="1">
         <v>3</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5">
       <c r="A108" s="1">
         <v>3</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:5">
       <c r="A109" s="1">
         <v>3</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:5">
       <c r="A110" s="1">
         <v>2</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:5">
       <c r="A111" s="1">
         <v>2</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5">
       <c r="A112" s="1">
         <v>2</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5">
       <c r="A113" s="1">
         <v>2</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5">
       <c r="A114" s="1">
         <v>2</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:5">
       <c r="A115" s="1">
         <v>2</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5">
       <c r="A116" s="1">
         <v>3</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5">
       <c r="A117" s="1">
         <v>3</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5">
       <c r="A118" s="1">
         <v>3</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5">
       <c r="A119" s="1">
         <v>3</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5">
       <c r="A120" s="1">
         <v>3</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5">
       <c r="A121" s="1">
         <v>3</v>
       </c>
